--- a/2016年第2期成绩表.xlsx
+++ b/2016年第2期成绩表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\201602node\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="59">
   <si>
     <t>第一周</t>
   </si>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,7 +571,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,7 +638,392 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -949,12 +1333,12 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="28" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
@@ -978,36 +1362,36 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
     </row>
     <row r="2" spans="1:21" ht="18">
       <c r="A2" s="1" t="s">
@@ -1078,31 +1462,41 @@
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="16">
         <v>39</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
+      <c r="F3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="19">
+        <v>50</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L3" s="16"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="M3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="21"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
@@ -1115,31 +1509,41 @@
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="16">
         <v>15</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="F4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="21"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="20"/>
@@ -1152,31 +1556,41 @@
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="E5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>44</v>
+      </c>
       <c r="L5" s="16"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="M5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="21"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="20"/>
@@ -1186,34 +1600,44 @@
       <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
+      <c r="F6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="19">
+        <v>10</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L6" s="16"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="21"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="20"/>
@@ -1226,31 +1650,41 @@
       <c r="A7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="16">
         <v>15</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
+      <c r="F7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="19">
+        <v>60</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L7" s="16"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="M7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="21"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="20"/>
@@ -1260,10 +1694,10 @@
       <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -1272,22 +1706,32 @@
       <c r="D8" s="16">
         <v>45</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
+      <c r="E8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L8" s="16"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="M8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="21"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="20"/>
@@ -1297,34 +1741,44 @@
       <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="16">
         <v>30</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="E9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="19">
+        <v>60</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="M9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="21"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="20"/>
@@ -1337,31 +1791,41 @@
       <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="16">
         <v>22</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="E10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="19">
+        <v>50</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L10" s="16"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
+      <c r="M10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="21"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="20"/>
@@ -1374,31 +1838,41 @@
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="16">
         <v>15</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="E11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L11" s="16"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
+      <c r="M11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="21"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
@@ -1411,31 +1885,41 @@
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="16">
         <v>23</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="E12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="19">
+        <v>90</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L12" s="16"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="21"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
@@ -1448,31 +1932,41 @@
       <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="16">
         <v>30</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="F13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="19">
+        <v>60</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L13" s="16"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="M13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="21"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="20"/>
@@ -1482,34 +1976,44 @@
       <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="16">
         <v>15</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="F14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="19">
+        <v>50</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L14" s="16"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
+      <c r="M14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="21"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="20"/>
@@ -1519,34 +2023,44 @@
       <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="16">
         <v>16</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
+      <c r="E15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="19">
+        <v>80</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="16"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
+      <c r="M15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="21"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="20"/>
@@ -1556,34 +2070,44 @@
       <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="16">
         <v>16</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="E16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="19">
+        <v>90</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L16" s="16"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="M16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="21"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="20"/>
@@ -1596,31 +2120,41 @@
       <c r="A17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="16">
         <v>8</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="E17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="19">
+        <v>40</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L17" s="16"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="M17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="21"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="20"/>
@@ -1633,31 +2167,41 @@
       <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="16">
         <v>23</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="F18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="19">
+        <v>30</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
+      <c r="M18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="21"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
@@ -1667,19 +2211,19 @@
       <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="16">
         <v>31</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -1688,13 +2232,23 @@
       <c r="G19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="H19" s="19">
+        <v>80</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L19" s="16"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
+      <c r="M19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="21"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="20"/>
@@ -1707,31 +2261,41 @@
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="16">
         <v>38</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="E20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="19">
+        <v>80</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L20" s="16"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
+      <c r="M20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="21"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="20"/>
@@ -1744,31 +2308,41 @@
       <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="16">
         <v>8</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="E21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
+      <c r="M21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="21"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="20"/>
@@ -1781,31 +2355,41 @@
       <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="16">
         <v>55</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="F22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L22" s="16"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
+      <c r="M22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="21"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="20"/>
@@ -1818,31 +2402,41 @@
       <c r="A23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="16">
         <v>15</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="F23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L23" s="16"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
+      <c r="M23" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="21"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="20"/>
@@ -1855,31 +2449,41 @@
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="16">
         <v>23</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="E24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="19">
+        <v>60</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L24" s="16"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
+      <c r="M24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="21"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="20"/>
@@ -1889,34 +2493,44 @@
       <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="16">
         <v>16</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="F25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L25" s="16"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
+      <c r="M25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="21"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="20"/>
@@ -1929,31 +2543,41 @@
       <c r="A26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="16">
         <v>37</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
+      <c r="E26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="19">
+        <v>70</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L26" s="16"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
+      <c r="M26" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="21"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="20"/>
@@ -1966,16 +2590,16 @@
       <c r="A27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="16">
         <v>0</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="18" t="s">
@@ -1984,13 +2608,23 @@
       <c r="G27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L27" s="16"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
+      <c r="M27" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="21"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="20"/>
@@ -2000,34 +2634,44 @@
       <c r="U27" s="17"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="16">
         <v>0</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
+      <c r="F28" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L28" s="16"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
+      <c r="M28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="21"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="20"/>
@@ -2037,34 +2681,44 @@
       <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="L29" s="16"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
+      <c r="M29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="21"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="20"/>
@@ -2074,51 +2728,50 @@
       <c r="U29" s="17"/>
     </row>
     <row r="31" spans="1:21" ht="18">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="37" t="s">
+      <c r="A32" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="35"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
@@ -2127,25 +2780,26 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:U29">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2016年第2期成绩表.xlsx
+++ b/2016年第2期成绩表.xlsx
@@ -602,6 +602,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,371 +632,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1333,7 +990,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1362,36 +1019,36 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:21" ht="18">
       <c r="A2" s="1" t="s">
@@ -1721,8 +1378,8 @@
       <c r="I8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>42</v>
+      <c r="J8" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>42</v>
@@ -2238,8 +1895,8 @@
       <c r="I19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>42</v>
+      <c r="J19" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>42</v>
@@ -2332,11 +1989,11 @@
       <c r="I21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>42</v>
+      <c r="J21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="33" t="s">
@@ -2429,8 +2086,8 @@
       <c r="J23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="31" t="s">
-        <v>42</v>
+      <c r="K23" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="33" t="s">
@@ -2708,11 +2365,11 @@
       <c r="I29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>42</v>
+      <c r="J29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="33" t="s">
@@ -2731,75 +2388,75 @@
       <c r="A31" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:U29">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
